--- a/AnnualReports.Web/Content/ExcelTemplates/BarsTemplate.xlsx
+++ b/AnnualReports.Web/Content/ExcelTemplates/BarsTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>State BARS Number</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,7 +383,7 @@
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,6 +398,9 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
